--- a/New folder/triaging_template_Rule_280- Detect when One or more Sophos services are missing or not running..xlsx
+++ b/New folder/triaging_template_Rule_280- Detect when One or more Sophos services are missing or not running..xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -545,12 +545,12 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Comprehensive triaging plan based on 0 historical incidents</t>
+          <t>Comprehensive triaging plan based on 92 historical incidents</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Historical Context: 0% FP, 0% TP</t>
+          <t>Historical Context: 62.0% FP, 30.4% TP</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
@@ -558,7 +558,7 @@
       <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Total incidents analyzed: 0</t>
+          <t>Total incidents analyzed: 92</t>
         </is>
       </c>
     </row>
@@ -568,17 +568,17 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Review Incident Details</t>
+          <t>Verify if the user has a VIP status by checking their username in the `status` field of the `users` table.</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Review incident metadata including user, IP, and timestamp. Identify any obvious anomalies or patterns.</t>
+          <t>json { "user_id": "smith", "username": "smith@company.com" }</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>incident number, user principal name, source ip address, timestamp range</t>
+          <t>incident number, user principal name, source ip address, reputation score</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr"/>
@@ -586,7 +586,7 @@
       <c r="G3" s="3" t="inlineStr"/>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Complete incident overview with key entities identified.</t>
+          <t>Based on 92 past incidents (62.0% FP rate): Typically find 'Clean IP', 'No malicious reputation', 'Known IP range'. If found, indicates False Positive.</t>
         </is>
       </c>
     </row>
@@ -596,25 +596,29 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Check Threat Intelligence</t>
+          <t>If no VIP status, proceed to Step B: Check for missing services or anomalies in the `status` field.</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Query threat intelligence sources for IP reputation and known malicious indicators. Clean reputation indicates FP.</t>
+          <t>sql SELECT status FROM users WHERE username = 'smith@company.com' AND user_id = current_user.id LIMIT 1; Step B: Check Service Status</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>source ip address, reputation score</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr"/>
+          <t>incident number, user principal name, source ip address, application name, reputation score</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>SELECT status FROM users WHERE username = 'smith@company.com' AND user_id = current_user.id LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>Typically shows: Clean IP, No threats. If found → False Positive.</t>
+          <t>Based on 92 past incidents (62.0% FP rate): Typically find 'Clean IP', 'No malicious reputation', 'Known IP range'. If found, indicates False Positive.</t>
         </is>
       </c>
     </row>
@@ -624,17 +628,17 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Review User Activity</t>
+          <t>Use Serper's Search API to search for any service that has an `is_installed` of False (indicating it is missing or not running) and a `status` related to "Missing service".</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Check user sign-in history and behavior patterns. Consistent with normal activity indicates FP.</t>
+          <t>json https://google.serper.dev/search?q=missing+service&amp;limit=50&amp;country=US&amp;location=global&amp;locale=en Step C: Check for Known Issues</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>user principal name, device information, authentication logs</t>
+          <t>incident number, application name, geolocation data</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr"/>
@@ -642,7 +646,7 @@
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>Typically shows: Known devices, Normal patterns. If found → False Positive.</t>
+          <t>Based on 92 historical incidents: 62.0% were False Positive, 30.4% were True Positive. Investigate thoroughly.</t>
         </is>
       </c>
     </row>
@@ -652,17 +656,17 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Verify MFA Status</t>
+          <t>Use Serper's Search API to search for any known issues that might cause a missing service or an uninstalled service.</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Confirm multi-factor authentication completion. Successful MFA indicates legitimate access.</t>
+          <t>json https://google.serper.dev/search?q=known+issues&amp;limit=50&amp;country=US&amp;location=global&amp;locale=en Step D: Check for Security Alerts and Trends</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>authentication logs, mfa details</t>
+          <t>incident number, geolocation data</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr"/>
@@ -670,7 +674,7 @@
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>Typically shows: MFA successful. If found → False Positive.</t>
+          <t>Based on 92 historical incidents: 62.0% were False Positive, 30.4% were True Positive. Investigate thoroughly.</t>
         </is>
       </c>
     </row>
@@ -680,17 +684,17 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Final Classification</t>
+          <t>Review security alerts, trends, and any security logs (e.g., `status` changes) related to missing services or running services.</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Classify as True Positive, False Positive, or Benign Positive based on all evidence. Document justification.</t>
+          <t>json { "alert_ids": ["890001234567890"], "timestamp": "2023-04-01T00:00:00Z", "service_name": "Missing service" } Step E: Compare with Known Apps</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>Incident details and security context</t>
+          <t>incident number, application name, timestamp range</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr"/>
@@ -698,7 +702,7 @@
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>Final determination with supporting evidence.</t>
+          <t>Based on 92 historical incidents: 62.0% were False Positive, 30.4% were True Positive. Investigate thoroughly.</t>
         </is>
       </c>
     </row>
@@ -708,17 +712,17 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Final Classification</t>
+          <t>Compare the user's known apps (e.g., `apps` table) to any known services installed and running.</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Classify the incident based on all investigation findings and evidence collected from previous steps. Consider the overall context, user behavior patterns, and threat indicators.</t>
+          <t>json SELECT DISTINCT application_id FROM users WHERE username = 'smith@company.com' AND current_user.id IS NOT NULL LIMIT 10; Step F: Perform a full data search</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>All investigation findings from previous steps</t>
+          <t>user principal name, application name</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr"/>
@@ -726,7 +730,7 @@
       <c r="G8" s="4" t="inlineStr"/>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>Options: True Positive, False Positive, Benign Positive. Historical baseline: 0% FP, 0% TP</t>
+          <t>Expected result (62.0% FP rate): 'Known applications', 'Approved apps', 'Whitelisted applications'. Indicates normal activity.</t>
         </is>
       </c>
     </row>
@@ -736,17 +740,17 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Confidence Level Assessment</t>
+          <t>Use Serper's Search API to perform an extensive data search across all organizations for any known services that might be missing or running.</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Assess your confidence level in the classification based on the quality and completeness of evidence gathered. High confidence requires strong, corroborating evidence from multiple sources.</t>
+          <t>json https://google.serper.dev/search?q=known+services&amp;limit=50&amp;country=US&amp;location=global&amp;locale=en Step G: Verify the Security Configuration</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>Evidence quality, completeness, and consistency</t>
+          <t>incident number, application name, geolocation data</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr"/>
@@ -754,7 +758,7 @@
       <c r="G9" s="3" t="inlineStr"/>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>Scale: High (strong evidence from multiple sources), Medium (moderate evidence with some gaps), Low (limited or conflicting evidence)</t>
+          <t>Based on 92 historical incidents: 62.0% were False Positive, 30.4% were True Positive. Investigate thoroughly.</t>
         </is>
       </c>
     </row>
@@ -764,17 +768,17 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Detailed Justification</t>
+          <t>Check if there are any security configurations (e.g., `security_config` object) that might be affecting services.</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Provide comprehensive reasoning for the classification decision. Reference specific findings from investigation steps, including IP reputation, user behavior, MFA status, and any anomalies detected.</t>
+          <t>json { "configurations": { "name": "Security Config", "value": { "enabled": true, "services": [ "Missing service", "Service A" ] } }, "timestamp": "2023-04-01T00:00:00Z" } Step H: Update the User with Details.</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Classification decision and supporting evidence</t>
+          <t>incident number, user principal name, application name, timestamp range</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr"/>
@@ -782,7 +786,7 @@
       <c r="G10" s="4" t="inlineStr"/>
       <c r="H10" s="4" t="inlineStr">
         <is>
-          <t>Be specific - reference step numbers and exact findings that support your conclusion</t>
+          <t>Based on 92 historical incidents: 62.0% were False Positive, 30.4% were True Positive. Investigate thoroughly.</t>
         </is>
       </c>
     </row>
@@ -792,17 +796,17 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Actions Taken</t>
+          <t>Final Classification</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Document all investigative actions performed during the triage process. Include queries executed, logs reviewed, external tools used, users or teams contacted, and timeline of investigation activities.</t>
+          <t>Classify the incident based on all investigation findings and evidence collected from previous steps. Consider the overall context, user behavior patterns, and threat indicators.</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>Investigation activities log</t>
+          <t>All investigation findings from previous steps</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr"/>
@@ -810,7 +814,7 @@
       <c r="G11" s="3" t="inlineStr"/>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>Include: KQL queries run, threat intelligence checks, user confirmations, system checks performed</t>
+          <t>Options: True Positive, False Positive, Benign Positive. Historical baseline: 62.0% FP, 30.4% TP</t>
         </is>
       </c>
     </row>
@@ -820,17 +824,17 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Escalation Decision</t>
+          <t>Confidence Level Assessment</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Determine if the incident requires escalation based on classification, severity, and organizational escalation policy. Consider factors such as confirmed malicious activity, VIP user involvement, or data exposure.</t>
+          <t>Assess your confidence level in the classification based on the quality and completeness of evidence gathered. High confidence requires strong, corroborating evidence from multiple sources.</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Final classification, severity assessment, escalation criteria</t>
+          <t>Evidence quality, completeness, and consistency</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr"/>
@@ -838,95 +842,223 @@
       <c r="G12" s="4" t="inlineStr"/>
       <c r="H12" s="4" t="inlineStr">
         <is>
-          <t>Escalate to: L3 SOC (confirmed threats), IT Team (system issues), Security Manager (VIP/critical), Incident Response Team (active compromise)</t>
+          <t>Scale: High (strong evidence from multiple sources), Medium (moderate evidence with some gaps), Low (limited or conflicting evidence)</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr"/>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>HISTORICAL REFERENCE DATA</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>Statistical analysis from all past incidents for this rule - use this data to inform your investigation approach and set expectations</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>This section provides baseline metrics for comparison</t>
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Detailed Justification</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Provide comprehensive reasoning for the classification decision. Reference specific findings from investigation steps, including IP reputation, user behavior, MFA status, and any anomalies detected.</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Classification decision and supporting evidence</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr"/>
+      <c r="G13" s="3" t="inlineStr"/>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>Be specific - reference step numbers and exact findings that support your conclusion</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr"/>
+      <c r="A14" s="4" t="n">
+        <v>12</v>
+      </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Total Historical Incidents</t>
+          <t>Actions Taken</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>0 incidents</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr"/>
+          <t>Document all investigative actions performed during the triage process. Include queries executed, logs reviewed, external tools used, users or teams contacted, and timeline of investigation activities.</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>Investigation activities log</t>
+        </is>
+      </c>
       <c r="E14" s="4" t="inlineStr"/>
       <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="4" t="inlineStr"/>
       <c r="H14" s="4" t="inlineStr">
         <is>
-          <t>Complete historical dataset analyzed for pattern recognition</t>
+          <t>Include: KQL queries run, threat intelligence checks, user confirmations, system checks performed</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr"/>
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>False Positive Rate</t>
+          <t>Escalation Decision</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>0% (0 of 1 incidents)</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr"/>
+          <t>Determine if the incident requires escalation based on classification, severity, and organizational escalation policy. Consider factors such as confirmed malicious activity, VIP user involvement, or data exposure.</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Final classification, severity assessment, escalation criteria</t>
+        </is>
+      </c>
       <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr"/>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>If similar patterns observed, likelihood of FP is 0%</t>
+          <t>Escalate to: L3 SOC (confirmed threats), IT Team (system issues), Security Manager (VIP/critical), Incident Response Team (active compromise)</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr"/>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>HISTORICAL REFERENCE DATA</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Statistical analysis from all past incidents for this rule - use this data to inform your investigation approach and set expectations</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>This section provides baseline metrics for comparison</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Total Historical Incidents</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>92 incidents</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr"/>
+      <c r="G17" s="3" t="inlineStr"/>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>Complete historical dataset analyzed for pattern recognition</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>False Positive Rate</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>62.0% (57 of 92 incidents)</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr"/>
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="4" t="inlineStr"/>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>If similar patterns observed, likelihood of FP is 62.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr"/>
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>True Positive Rate</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>0% (0 of 1 incidents)</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr"/>
-      <c r="E16" s="4" t="inlineStr"/>
-      <c r="F16" s="4" t="inlineStr"/>
-      <c r="G16" s="4" t="inlineStr"/>
-      <c r="H16" s="4" t="inlineStr">
-        <is>
-          <t>If threat indicators found, likelihood of TP is 0%</t>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>30.4% (28 of 92 incidents)</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="inlineStr"/>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>If threat indicators found, likelihood of TP is 30.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Common FP Justifications</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>BAS Testing, All services were running, Clean status, Legitimate Asset, INC0095055, all services running, Device is clean, All services are running, Legitimate activity, Legitimate user, Device is clean , device is clean , IP Clean</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>Typical reasons for false positive classifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Typical FP Indicators</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>triaging steps performed: check ip reputation - clean. check hostname .. arq-00463 check history  for 90 day s/ 30 days.. etc  na check signin logs -- na escalating (yes/ no) yes closure comments for tp / fp / benign positive: tp (as checked all sophos services are not running) inc0095255 | checked the device in sophos, the device( arq-00304  )has been automatically updated by sophos and the status is clean | triaging steps performed: check ip reputation - clean. arc-pc-pf5bd8ec check hostname .check history – for 90 day s/ 30 days. etc – na check signin logs -- na escalating (yes/ no) yes closure comments for tp / fp / benign positive: tp (as checked all sophos services are not running) inc0095885 | triaging steps performed: check ip reputation - clean. check hostname .. arq-00450 check history  for 90 day s/ 30 days.. etc  na check signin logs -- na escalating (yes/ no) yes closure comments for tp / fp / benign positive: tp (as checked all sophos services are not running) inc0095260 | observed the events,  device-arq-procdna-1,sophos services are missing or not running, based on eddie conversation need to wait or sometime and then check the sophos status is clean now so closing as tp | triaging steps performed: check ip reputation - clean. check hostname .. arq-00374 check history  for 90 day s/ 30 days.. etc  na check signin logs -- na escalating (yes/ no) yes closure comments for tp / fp / benign positive: tp (as checked all sophos services are not running) inc0095259 | triaging steps performed: check ip reputation - clean. arc-pc-pf45lcsn check hostname .check history – for 90 day s/ 30 days. etc – na check signin logs -- na escalating (yes/ no) yes closure comments for tp / fp / benign positive: tp (as checked all sophos services are not running) inc0095653 | as checked in sophos, the device(arq-mbp-035) all sophos services are  not running based on eddie conversation need to wait or some time and then check the sophos status, now the status was clean so closing as tp (inc0095368) | triaging steps performed: check ip reputation - clean. check hostname .. arq-mbp-027 ,as checked all sophos services are running successfully so closing as fp. | triaging steps performed: check ip reputation - clean. check hostname .. arq-00476 check history  for 90 day s/ 30 days.. etc  na check signin logs -- na escalating (yes/ no) yes closure comments for tp / fp / benign positive: tp (as checked all sophos services are not running) inc0095136 | triaging steps performed: check ip reputation - clean. check hostname .. arq-00447 check history  for 90 day s/ 30 days.. etc  na check signin logs -- all services are running currently. na escalating (yes/ no) yes closure comments for tp / fp / benign positive: fp | as checked in sophos, the device(arq-mbp-058) all sophos services are  not running based on eddie conversation need to wait or some time and then check the sophos status, now the status was clean so closing as bp | triaging steps performed: check ip reputation - clean. check hostname .. arq-pc-132 check history  for 90 day s/ 30 days.. etc  na check signin logs -- na escalating (yes/ no) yes closure comments for tp / fp / benign positive: tp (as checked all sophos services are not running) inc0095274 | triaging steps performed: check ip reputation - clean. check hostname .. arc-pc-pf5ajnsz check history  for 90 day s/ 30 days.. etc  na check signin logs -- na escalating (yes/ no) no (as checked all sophos services are running successfully so closing as fp. | triaging steps performed: check ip reputation - clean. check hostname .. pers-avd_10 check history  for 90 day s/ 30 days.. etc  na check signin logs -- na escalating (yes/ no) yes closure comments for tp / fp / benign positive: bp, as checked device, its related bas testing | observed events pers-avd-10 device is related bas testing nothing suspicious closing as beningn positive. | triaging steps performed: check ip reputation - clean. check hostname .. arq-00329 check history  for 90 day s/ 30 days.. etc  na check signin logs -- na escalating (yes/ no) yes closure comments for tp / fp / benign positive: tp (as checked all sophos services are not running, so informed to edr team and will check for raisig the ticket, so closing as true positive) | triaging steps performed: check ip reputation - clean.device(arq-mbp-014) ,as checked all sophos services are running successfully so closing as fp. | checked the device in sophos, the device( arq-mbp- 049  )has been automatically updated by sophos and the status is clean | triaging steps performed: check ip reputation - clean. arc-00403check hostname .check history – for 90 day s/ 30 days. etc – na check signin logs -- na escalating (yes/ no) yes closure comments for tp / fp / benign positive: tp (as checked all sophos services are not running) inc006076 | checked the device in sophos, the device( arq-mbp-058  )has been automatically updated by sophos and the status is clean</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr"/>
+      <c r="G21" s="3" t="inlineStr"/>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>Look for these patterns in your investigation</t>
         </is>
       </c>
     </row>
